--- a/Alarmas_Respiradores.xlsx
+++ b/Alarmas_Respiradores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molin\Desktop\UOC\TFM\Python_Pandas_CodigoTFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E31B7-8A38-4B8B-A368-8260C2960DCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F9BE2-0847-4FEA-9A26-735EAA80650E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{890DC554-ECE2-4ED5-B399-575DF8A4ECE4}"/>
   </bookViews>
@@ -47,21 +47,12 @@
     <t>Short Text</t>
   </si>
   <si>
-    <t>1º Tractament</t>
-  </si>
-  <si>
     <t>Aux1</t>
   </si>
   <si>
-    <t>2º Tractament</t>
-  </si>
-  <si>
     <t>Aux2</t>
   </si>
   <si>
-    <t>3º Tractament2</t>
-  </si>
-  <si>
     <t>108|VRPT</t>
   </si>
   <si>
@@ -1572,6 +1563,15 @@
   </si>
   <si>
     <t>ALMM_STST_FIL_FAIL</t>
+  </si>
+  <si>
+    <t>Tractament1</t>
+  </si>
+  <si>
+    <t>Tractament2</t>
+  </si>
+  <si>
+    <t>Tractament3</t>
   </si>
 </sst>
 </file>
@@ -1758,11 +1758,11 @@
     <tableColumn id="3" xr3:uid="{50FF3BAD-C378-4E40-B136-9857D40BF26C}" name="Class" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{EBDCFE80-63D2-4FDA-849A-062146A84A2F}" name="Text" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{60BDF308-0203-4E76-A437-A56FC3FE2221}" name="Short Text" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{81F647B5-9F0E-4833-A716-F1601BECC42A}" name="1º Tractament" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{81F647B5-9F0E-4833-A716-F1601BECC42A}" name="Tractament1" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{7DCF20DD-E399-4F57-8AC0-80974F3F6EB4}" name="Aux1" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{83F6F665-8C4B-46B9-8059-CD4DA3D1F3DB}" name="2º Tractament" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{83F6F665-8C4B-46B9-8059-CD4DA3D1F3DB}" name="Tractament2" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{BE510D5D-E512-490B-BD91-0C15D9429C12}" name="Aux2" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D38763F1-A629-47B6-B970-1E194AD67641}" name="3º Tractament2" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{D38763F1-A629-47B6-B970-1E194AD67641}" name="Tractament3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2067,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BEFEF0-095E-4FE7-BCCD-8091D7B06B11}">
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="D345" sqref="D345"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,39 +2102,39 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>2</v>
       </c>
       <c r="G2" s="4"/>
@@ -2148,22 +2148,22 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G3" s="4"/>
@@ -2172,25 +2172,25 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -2200,31 +2200,31 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G5" s="4"/>
@@ -2233,28 +2233,28 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G6" s="4"/>
@@ -2263,28 +2263,28 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G7" s="4"/>
@@ -2293,28 +2293,28 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G8" s="4"/>
@@ -2328,22 +2328,22 @@
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>2</v>
       </c>
       <c r="G9" s="4"/>
@@ -2352,28 +2352,28 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G10" s="4"/>
@@ -2387,22 +2387,22 @@
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G11" s="4"/>
@@ -2416,22 +2416,22 @@
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>2</v>
       </c>
       <c r="G12" s="4"/>
@@ -2440,28 +2440,28 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G13" s="4"/>
@@ -2470,28 +2470,28 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>2</v>
       </c>
       <c r="G14" s="4"/>
@@ -2505,22 +2505,22 @@
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G15" s="4"/>
@@ -2529,28 +2529,28 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G16" s="4"/>
@@ -2559,28 +2559,28 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G17" s="4"/>
@@ -2589,28 +2589,28 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G18" s="4"/>
@@ -2619,28 +2619,28 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G19" s="4"/>
@@ -2649,28 +2649,28 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G20" s="4"/>
@@ -2679,28 +2679,28 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G21" s="4"/>
@@ -2714,22 +2714,22 @@
     </row>
     <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
       <c r="G22" s="4"/>
@@ -2738,28 +2738,28 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F23" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
       <c r="G23" s="4"/>
@@ -2773,19 +2773,19 @@
     </row>
     <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -2795,10 +2795,10 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J24" s="4">
-        <f>Table4[[#This Row],[2º Tractament]]</f>
+        <f>Table4[[#This Row],[Tractament2]]</f>
         <v>1</v>
       </c>
     </row>
@@ -2807,16 +2807,16 @@
         <v>428</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -2835,16 +2835,16 @@
         <v>422</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -2863,16 +2863,16 @@
         <v>404</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -2891,16 +2891,16 @@
         <v>433</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>429</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         <v>419</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -2975,16 +2975,16 @@
         <v>427</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>426</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>499</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -3059,16 +3059,16 @@
         <v>409</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -3087,16 +3087,16 @@
         <v>410</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F35" s="4">
         <v>2</v>
@@ -3115,16 +3115,16 @@
         <v>439</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -3143,16 +3143,16 @@
         <v>412</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F37" s="4">
         <v>2</v>
@@ -3171,16 +3171,16 @@
         <v>402</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -3199,16 +3199,16 @@
         <v>414</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -3227,16 +3227,16 @@
         <v>403</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -3255,16 +3255,16 @@
         <v>407</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -3283,16 +3283,16 @@
         <v>411</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>413</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
@@ -3341,16 +3341,16 @@
         <v>498</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -3371,16 +3371,16 @@
         <v>405</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F45" s="4">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>417</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>435</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -3455,16 +3455,16 @@
         <v>436</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -3483,16 +3483,16 @@
         <v>421</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>408</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -3539,16 +3539,16 @@
         <v>430</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -3567,16 +3567,16 @@
         <v>425</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F52" s="4">
         <v>0</v>
@@ -3595,16 +3595,16 @@
         <v>400</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
@@ -3623,16 +3623,16 @@
         <v>401</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -3651,16 +3651,16 @@
         <v>440</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F55" s="4">
         <v>2</v>
@@ -3679,16 +3679,16 @@
         <v>442</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -3707,16 +3707,16 @@
         <v>418</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F57" s="4">
         <v>0</v>
@@ -3735,16 +3735,16 @@
         <v>445</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F58" s="4">
         <v>1</v>
@@ -3763,16 +3763,16 @@
         <v>446</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F59" s="4">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J59" s="4">
         <v>1</v>
@@ -3793,16 +3793,16 @@
         <v>423</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F60" s="4">
         <v>2</v>
@@ -3821,16 +3821,16 @@
         <v>432</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F61" s="4">
         <v>2</v>
@@ -3849,16 +3849,16 @@
         <v>406</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F62" s="4">
         <v>0</v>
@@ -3877,16 +3877,16 @@
         <v>438</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F63" s="4">
         <v>0</v>
@@ -3905,16 +3905,16 @@
         <v>431</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F64" s="4">
         <v>2</v>
@@ -3933,16 +3933,16 @@
         <v>443</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -3961,16 +3961,16 @@
         <v>424</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F66" s="4">
         <v>2</v>
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J66" s="4">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>437</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F67" s="4">
         <v>2</v>
@@ -4019,16 +4019,16 @@
         <v>416</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -4047,16 +4047,16 @@
         <v>441</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -4075,16 +4075,16 @@
         <v>434</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F70" s="4">
         <v>2</v>
@@ -4103,16 +4103,16 @@
         <v>420</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -4131,16 +4131,16 @@
         <v>444</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F72" s="4">
         <v>0</v>
@@ -4159,16 +4159,16 @@
         <v>811</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -4187,16 +4187,16 @@
         <v>804</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F74" s="4">
         <v>2</v>
@@ -4215,16 +4215,16 @@
         <v>805</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F75" s="4">
         <v>2</v>
@@ -4243,16 +4243,16 @@
         <v>807</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -4271,16 +4271,16 @@
         <v>809</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -4299,16 +4299,16 @@
         <v>823</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -4327,16 +4327,16 @@
         <v>824</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F79" s="4">
         <v>2</v>
@@ -4355,16 +4355,16 @@
         <v>835</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E80" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -4383,16 +4383,16 @@
         <v>834</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
@@ -4411,16 +4411,16 @@
         <v>833</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F82" s="4">
         <v>0</v>
@@ -4439,16 +4439,16 @@
         <v>802</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F83" s="4">
         <v>0</v>
@@ -4467,16 +4467,16 @@
         <v>803</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F84" s="4">
         <v>0</v>
@@ -4495,16 +4495,16 @@
         <v>831</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
@@ -4523,16 +4523,16 @@
         <v>832</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F86" s="4">
         <v>0</v>
@@ -4551,16 +4551,16 @@
         <v>829</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
@@ -4579,16 +4579,16 @@
         <v>830</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F88" s="4">
         <v>2</v>
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J88" s="4">
         <v>1</v>
@@ -4609,16 +4609,16 @@
         <v>806</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -4637,16 +4637,16 @@
         <v>825</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F90" s="4">
         <v>1</v>
@@ -4665,16 +4665,16 @@
         <v>816</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F91" s="4">
         <v>2</v>
@@ -4693,16 +4693,16 @@
         <v>826</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F92" s="4">
         <v>1</v>
@@ -4721,16 +4721,16 @@
         <v>810</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F93" s="4">
         <v>2</v>
@@ -4749,16 +4749,16 @@
         <v>827</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -4777,16 +4777,16 @@
         <v>815</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F95" s="4">
         <v>2</v>
@@ -4805,16 +4805,16 @@
         <v>813</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F96" s="4">
         <v>0</v>
@@ -4833,16 +4833,16 @@
         <v>800</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -4861,16 +4861,16 @@
         <v>801</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F98" s="4">
         <v>0</v>
@@ -4889,16 +4889,16 @@
         <v>812</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
@@ -4917,16 +4917,16 @@
         <v>817</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F100" s="4">
         <v>2</v>
@@ -4945,16 +4945,16 @@
         <v>828</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F101" s="4">
         <v>2</v>
@@ -4973,16 +4973,16 @@
         <v>821</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F102" s="4">
         <v>0</v>
@@ -5001,16 +5001,16 @@
         <v>822</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
@@ -5029,16 +5029,16 @@
         <v>819</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F104" s="4">
         <v>1</v>
@@ -5057,16 +5057,16 @@
         <v>820</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
@@ -5085,16 +5085,16 @@
         <v>808</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
@@ -5113,16 +5113,16 @@
         <v>814</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F107" s="4">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>818</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F108" s="4">
         <v>0</v>
@@ -5169,16 +5169,16 @@
         <v>1</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F109" s="4">
         <v>2</v>
@@ -5199,16 +5199,16 @@
         <v>10</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F110" s="4">
         <v>2</v>
@@ -5229,16 +5229,16 @@
         <v>100</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F111" s="4">
         <v>0</v>
@@ -5259,16 +5259,16 @@
         <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F112" s="4">
         <v>0</v>
@@ -5289,16 +5289,16 @@
         <v>102</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F113" s="4">
         <v>0</v>
@@ -5319,16 +5319,16 @@
         <v>103</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F114" s="4">
         <v>0</v>
@@ -5349,16 +5349,16 @@
         <v>104</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F115" s="4">
         <v>0</v>
@@ -5379,16 +5379,16 @@
         <v>105</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F116" s="4">
         <v>0</v>
@@ -5409,16 +5409,16 @@
         <v>106</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F117" s="4">
         <v>0</v>
@@ -5439,16 +5439,16 @@
         <v>107</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F118" s="4">
         <v>0</v>
@@ -5469,16 +5469,16 @@
         <v>108</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F119" s="4">
         <v>0</v>
@@ -5499,16 +5499,16 @@
         <v>109</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F120" s="4">
         <v>0</v>
@@ -5529,16 +5529,16 @@
         <v>11</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F121" s="4">
         <v>2</v>
@@ -5559,16 +5559,16 @@
         <v>110</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F122" s="4">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>111</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F123" s="4">
         <v>0</v>
@@ -5619,16 +5619,16 @@
         <v>112</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F124" s="4">
         <v>0</v>
@@ -5649,16 +5649,16 @@
         <v>113</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F125" s="4">
         <v>0</v>
@@ -5679,16 +5679,16 @@
         <v>114</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F126" s="4">
         <v>0</v>
@@ -5709,16 +5709,16 @@
         <v>115</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F127" s="4">
         <v>0</v>
@@ -5739,16 +5739,16 @@
         <v>116</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F128" s="4">
         <v>0</v>
@@ -5769,16 +5769,16 @@
         <v>117</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F129" s="4">
         <v>0</v>
@@ -5799,16 +5799,16 @@
         <v>118</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F130" s="4">
         <v>0</v>
@@ -5829,16 +5829,16 @@
         <v>119</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F131" s="4">
         <v>0</v>
@@ -5859,16 +5859,16 @@
         <v>12</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F132" s="4">
         <v>2</v>
@@ -5889,16 +5889,16 @@
         <v>120</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F133" s="4">
         <v>0</v>
@@ -5919,16 +5919,16 @@
         <v>121</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F134" s="4">
         <v>0</v>
@@ -5949,16 +5949,16 @@
         <v>122</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F135" s="4">
         <v>0</v>
@@ -5979,16 +5979,16 @@
         <v>123</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F136" s="4">
         <v>0</v>
@@ -6009,16 +6009,16 @@
         <v>124</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F137" s="4">
         <v>0</v>
@@ -6039,16 +6039,16 @@
         <v>125</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F138" s="4">
         <v>0</v>
@@ -6069,16 +6069,16 @@
         <v>126</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F139" s="4">
         <v>0</v>
@@ -6099,16 +6099,16 @@
         <v>127</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F140" s="4">
         <v>0</v>
@@ -6129,16 +6129,16 @@
         <v>128</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F141" s="4">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>129</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F142" s="4">
         <v>0</v>
@@ -6189,16 +6189,16 @@
         <v>13</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F143" s="4">
         <v>2</v>
@@ -6219,16 +6219,16 @@
         <v>130</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F144" s="4">
         <v>0</v>
@@ -6249,16 +6249,16 @@
         <v>131</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F145" s="4">
         <v>0</v>
@@ -6279,16 +6279,16 @@
         <v>132</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F146" s="4">
         <v>0</v>
@@ -6309,16 +6309,16 @@
         <v>133</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F147" s="4">
         <v>0</v>
@@ -6339,16 +6339,16 @@
         <v>134</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F148" s="4">
         <v>0</v>
@@ -6369,16 +6369,16 @@
         <v>135</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F149" s="4">
         <v>0</v>
@@ -6399,16 +6399,16 @@
         <v>136</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F150" s="4">
         <v>0</v>
@@ -6429,16 +6429,16 @@
         <v>137</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
@@ -6459,16 +6459,16 @@
         <v>138</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F152" s="4">
         <v>1</v>
@@ -6489,16 +6489,16 @@
         <v>139</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
@@ -6519,16 +6519,16 @@
         <v>14</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F154" s="4">
         <v>2</v>
@@ -6549,16 +6549,16 @@
         <v>140</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -6579,16 +6579,16 @@
         <v>141</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -6609,16 +6609,16 @@
         <v>142</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F157" s="4">
         <v>0</v>
@@ -6639,16 +6639,16 @@
         <v>143</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F158" s="4">
         <v>0</v>
@@ -6669,16 +6669,16 @@
         <v>144</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
@@ -6699,16 +6699,16 @@
         <v>145</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F160" s="4">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>146</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F161" s="4">
         <v>0</v>
@@ -6759,16 +6759,16 @@
         <v>147</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F162" s="4">
         <v>0</v>
@@ -6789,16 +6789,16 @@
         <v>148</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F163" s="4">
         <v>0</v>
@@ -6819,16 +6819,16 @@
         <v>149</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F164" s="4">
         <v>0</v>
@@ -6849,16 +6849,16 @@
         <v>15</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F165" s="4">
         <v>2</v>
@@ -6879,16 +6879,16 @@
         <v>150</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F166" s="4">
         <v>0</v>
@@ -6909,16 +6909,16 @@
         <v>151</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F167" s="4">
         <v>0</v>
@@ -6939,16 +6939,16 @@
         <v>152</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F168" s="4">
         <v>0</v>
@@ -6969,13 +6969,13 @@
         <v>153</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="4">
@@ -6997,13 +6997,13 @@
         <v>154</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="4">
@@ -7025,13 +7025,13 @@
         <v>155</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="4">
@@ -7053,13 +7053,13 @@
         <v>156</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="4">
@@ -7081,13 +7081,13 @@
         <v>157</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="4">
@@ -7109,13 +7109,13 @@
         <v>158</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="4">
@@ -7137,13 +7137,13 @@
         <v>159</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="4">
@@ -7165,16 +7165,16 @@
         <v>16</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F176" s="4">
         <v>1</v>
@@ -7195,13 +7195,13 @@
         <v>160</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="4">
@@ -7223,13 +7223,13 @@
         <v>161</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="4">
@@ -7251,13 +7251,13 @@
         <v>162</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="4">
@@ -7279,13 +7279,13 @@
         <v>163</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="4">
@@ -7307,13 +7307,13 @@
         <v>164</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="4">
@@ -7335,13 +7335,13 @@
         <v>165</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="4">
@@ -7363,13 +7363,13 @@
         <v>166</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="4">
@@ -7391,16 +7391,16 @@
         <v>18</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
@@ -7421,16 +7421,16 @@
         <v>19</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -7451,16 +7451,16 @@
         <v>193</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F186" s="4">
         <v>0</v>
@@ -7481,16 +7481,16 @@
         <v>194</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F187" s="4">
         <v>1</v>
@@ -7511,16 +7511,16 @@
         <v>195</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F188" s="4">
         <v>0</v>
@@ -7541,16 +7541,16 @@
         <v>196</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F189" s="4">
         <v>0</v>
@@ -7571,16 +7571,16 @@
         <v>197</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F190" s="4">
         <v>0</v>
@@ -7601,16 +7601,16 @@
         <v>198</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F191" s="4">
         <v>0</v>
@@ -7631,16 +7631,16 @@
         <v>199</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F192" s="4">
         <v>1</v>
@@ -7661,16 +7661,16 @@
         <v>2</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F193" s="4">
         <v>2</v>
@@ -7691,16 +7691,16 @@
         <v>20</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F194" s="4">
         <v>1</v>
@@ -7721,16 +7721,16 @@
         <v>200</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -7751,16 +7751,16 @@
         <v>201</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F196" s="4">
         <v>1</v>
@@ -7781,16 +7781,16 @@
         <v>202</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -7811,16 +7811,16 @@
         <v>203</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F198" s="4">
         <v>1</v>
@@ -7841,16 +7841,16 @@
         <v>204</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F199" s="4">
         <v>2</v>
@@ -7871,16 +7871,16 @@
         <v>205</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F200" s="4">
         <v>2</v>
@@ -7901,16 +7901,16 @@
         <v>206</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F201" s="4">
         <v>2</v>
@@ -7931,16 +7931,16 @@
         <v>207</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F202" s="4">
         <v>1</v>
@@ -7961,16 +7961,16 @@
         <v>208</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -7991,16 +7991,16 @@
         <v>209</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F204" s="4">
         <v>1</v>
@@ -8021,16 +8021,16 @@
         <v>21</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -8051,16 +8051,16 @@
         <v>210</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F206" s="4">
         <v>1</v>
@@ -8081,16 +8081,16 @@
         <v>211</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
@@ -8111,16 +8111,16 @@
         <v>212</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F208" s="4">
         <v>1</v>
@@ -8141,16 +8141,16 @@
         <v>213</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F209" s="4">
         <v>1</v>
@@ -8171,16 +8171,16 @@
         <v>214</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F210" s="4">
         <v>1</v>
@@ -8201,16 +8201,16 @@
         <v>215</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F211" s="4">
         <v>0</v>
@@ -8231,16 +8231,16 @@
         <v>216</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F212" s="4">
         <v>1</v>
@@ -8261,16 +8261,16 @@
         <v>217</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F213" s="4">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>218</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F214" s="4">
         <v>0</v>
@@ -8321,16 +8321,16 @@
         <v>219</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F215" s="4">
         <v>1</v>
@@ -8351,16 +8351,16 @@
         <v>22</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F216" s="4">
         <v>1</v>
@@ -8381,16 +8381,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F217" s="4">
         <v>1</v>
@@ -8411,16 +8411,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F218" s="4">
         <v>1</v>
@@ -8441,16 +8441,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F219" s="4">
         <v>1</v>
@@ -8471,16 +8471,16 @@
         <v>225</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F220" s="4">
         <v>0</v>
@@ -8501,16 +8501,16 @@
         <v>226</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="E221" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F221" s="4">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>227</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F222" s="4">
         <v>2</v>
@@ -8561,16 +8561,16 @@
         <v>228</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F223" s="4">
         <v>2</v>
@@ -8591,16 +8591,16 @@
         <v>229</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F224" s="4">
         <v>0</v>
@@ -8621,16 +8621,16 @@
         <v>23</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F225" s="4">
         <v>1</v>
@@ -8651,16 +8651,16 @@
         <v>230</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F226" s="4">
         <v>1</v>
@@ -8681,16 +8681,16 @@
         <v>231</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F227" s="4">
         <v>1</v>
@@ -8711,16 +8711,16 @@
         <v>232</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F228" s="4">
         <v>2</v>
@@ -8741,16 +8741,16 @@
         <v>233</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F229" s="4">
         <v>2</v>
@@ -8771,16 +8771,16 @@
         <v>234</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F230" s="4">
         <v>0</v>
@@ -8801,16 +8801,16 @@
         <v>235</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F231" s="4">
         <v>1</v>
@@ -8831,16 +8831,16 @@
         <v>236</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F232" s="4">
         <v>1</v>
@@ -8861,16 +8861,16 @@
         <v>237</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F233" s="4">
         <v>0</v>
@@ -8891,16 +8891,16 @@
         <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F234" s="4">
         <v>0</v>
@@ -8921,16 +8921,16 @@
         <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F235" s="4">
         <v>0</v>
@@ -8951,16 +8951,16 @@
         <v>24</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F236" s="4">
         <v>0</v>
@@ -8981,16 +8981,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F237" s="4">
         <v>2</v>
@@ -9011,16 +9011,16 @@
         <v>242</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F238" s="4">
         <v>2</v>
@@ -9041,16 +9041,16 @@
         <v>243</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F239" s="4">
         <v>2</v>
@@ -9071,16 +9071,16 @@
         <v>246</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F240" s="4">
         <v>0</v>
@@ -9101,16 +9101,16 @@
         <v>248</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F241" s="4">
         <v>0</v>
@@ -9131,16 +9131,16 @@
         <v>249</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F242" s="4">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>25</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F243" s="4">
         <v>1</v>
@@ -9191,16 +9191,16 @@
         <v>250</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F244" s="4">
         <v>0</v>
@@ -9221,16 +9221,16 @@
         <v>251</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F245" s="4">
         <v>0</v>
@@ -9251,16 +9251,16 @@
         <v>252</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F246" s="4">
         <v>1</v>
@@ -9281,16 +9281,16 @@
         <v>253</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F247" s="4">
         <v>1</v>
@@ -9311,16 +9311,16 @@
         <v>254</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F248" s="4">
         <v>0</v>
@@ -9341,16 +9341,16 @@
         <v>255</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F249" s="4">
         <v>0</v>
@@ -9371,16 +9371,16 @@
         <v>256</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F250" s="4">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>257</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F251" s="4">
         <v>0</v>
@@ -9431,16 +9431,16 @@
         <v>259</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F252" s="4">
         <v>1</v>
@@ -9461,16 +9461,16 @@
         <v>26</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F253" s="4">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>261</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F254" s="4">
         <v>0</v>
@@ -9521,16 +9521,16 @@
         <v>262</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F255" s="4">
         <v>0</v>
@@ -9551,16 +9551,16 @@
         <v>263</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F256" s="4">
         <v>1</v>
@@ -9581,16 +9581,16 @@
         <v>264</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F257" s="4">
         <v>1</v>
@@ -9611,16 +9611,16 @@
         <v>265</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F258" s="4">
         <v>1</v>
@@ -9641,16 +9641,16 @@
         <v>266</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F259" s="4">
         <v>1</v>
@@ -9671,16 +9671,16 @@
         <v>267</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F260" s="4">
         <v>1</v>
@@ -9701,16 +9701,16 @@
         <v>268</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F261" s="4">
         <v>1</v>
@@ -9731,16 +9731,16 @@
         <v>269</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F262" s="4">
         <v>1</v>
@@ -9761,16 +9761,16 @@
         <v>27</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F263" s="4">
         <v>1</v>
@@ -9791,16 +9791,16 @@
         <v>270</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F264" s="4">
         <v>0</v>
@@ -9821,16 +9821,16 @@
         <v>271</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F265" s="4">
         <v>0</v>
@@ -9851,13 +9851,13 @@
         <v>272</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E266" s="3"/>
       <c r="F266" s="4">
@@ -9879,16 +9879,16 @@
         <v>273</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F267" s="4">
         <v>0</v>
@@ -9909,16 +9909,16 @@
         <v>274</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F268" s="4">
         <v>1</v>
@@ -9939,16 +9939,16 @@
         <v>275</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F269" s="4">
         <v>1</v>
@@ -9969,16 +9969,16 @@
         <v>276</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F270" s="4">
         <v>1</v>
@@ -9999,16 +9999,16 @@
         <v>277</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F271" s="4">
         <v>1</v>
@@ -10029,16 +10029,16 @@
         <v>278</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F272" s="4">
         <v>1</v>
@@ -10059,16 +10059,16 @@
         <v>279</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F273" s="4">
         <v>1</v>
@@ -10089,16 +10089,16 @@
         <v>28</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F274" s="4">
         <v>1</v>
@@ -10119,16 +10119,16 @@
         <v>280</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F275" s="4">
         <v>0</v>
@@ -10149,16 +10149,16 @@
         <v>281</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F276" s="4">
         <v>0</v>
@@ -10179,16 +10179,16 @@
         <v>282</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F277" s="4">
         <v>0</v>
@@ -10209,16 +10209,16 @@
         <v>29</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F278" s="4">
         <v>0</v>
@@ -10239,16 +10239,16 @@
         <v>3</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F279" s="4">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>30</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F280" s="4">
         <v>0</v>
@@ -10299,16 +10299,16 @@
         <v>31</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F281" s="4">
         <v>0</v>
@@ -10329,16 +10329,16 @@
         <v>32</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F282" s="4">
         <v>0</v>
@@ -10359,16 +10359,16 @@
         <v>33</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F283" s="4">
         <v>0</v>
@@ -10389,16 +10389,16 @@
         <v>34</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F284" s="4">
         <v>0</v>
@@ -10419,16 +10419,16 @@
         <v>35</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F285" s="4">
         <v>0</v>
@@ -10449,16 +10449,16 @@
         <v>36</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F286" s="4">
         <v>0</v>
@@ -10479,16 +10479,16 @@
         <v>37</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F287" s="4">
         <v>0</v>
@@ -10509,16 +10509,16 @@
         <v>38</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F288" s="4">
         <v>1</v>
@@ -10539,16 +10539,16 @@
         <v>39</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F289" s="4">
         <v>0</v>
@@ -10569,16 +10569,16 @@
         <v>4</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F290" s="4">
         <v>0</v>
@@ -10599,16 +10599,16 @@
         <v>40</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F291" s="4">
         <v>0</v>
@@ -10629,16 +10629,16 @@
         <v>41</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F292" s="4">
         <v>0</v>
@@ -10659,16 +10659,16 @@
         <v>42</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F293" s="4">
         <v>0</v>
@@ -10689,16 +10689,16 @@
         <v>43</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F294" s="4">
         <v>0</v>
@@ -10719,16 +10719,16 @@
         <v>44</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F295" s="4">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>45</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F296" s="4">
         <v>0</v>
@@ -10779,16 +10779,16 @@
         <v>46</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F297" s="4">
         <v>1</v>
@@ -10809,16 +10809,16 @@
         <v>47</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F298" s="4">
         <v>1</v>
@@ -10839,16 +10839,16 @@
         <v>48</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F299" s="4">
         <v>1</v>
@@ -10869,16 +10869,16 @@
         <v>49</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F300" s="4">
         <v>1</v>
@@ -10899,16 +10899,16 @@
         <v>5</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F301" s="4">
         <v>0</v>
@@ -10929,16 +10929,16 @@
         <v>50</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F302" s="4">
         <v>0</v>
@@ -10959,16 +10959,16 @@
         <v>51</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F303" s="4">
         <v>1</v>
@@ -10989,16 +10989,16 @@
         <v>52</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F304" s="4">
         <v>1</v>
@@ -11019,16 +11019,16 @@
         <v>53</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F305" s="4">
         <v>2</v>
@@ -11049,16 +11049,16 @@
         <v>54</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F306" s="4">
         <v>0</v>
@@ -11079,16 +11079,16 @@
         <v>55</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F307" s="4">
         <v>0</v>
@@ -11109,16 +11109,16 @@
         <v>56</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F308" s="4">
         <v>0</v>
@@ -11139,16 +11139,16 @@
         <v>57</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F309" s="4">
         <v>0</v>
@@ -11169,16 +11169,16 @@
         <v>58</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F310" s="4">
         <v>0</v>
@@ -11199,16 +11199,16 @@
         <v>59</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F311" s="4">
         <v>0</v>
@@ -11229,16 +11229,16 @@
         <v>6</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F312" s="4">
         <v>1</v>
@@ -11259,16 +11259,16 @@
         <v>60</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F313" s="4">
         <v>0</v>
@@ -11289,16 +11289,16 @@
         <v>61</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F314" s="4">
         <v>0</v>
@@ -11319,16 +11319,16 @@
         <v>62</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F315" s="4">
         <v>0</v>
@@ -11349,16 +11349,16 @@
         <v>63</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F316" s="4">
         <v>0</v>
@@ -11379,16 +11379,16 @@
         <v>64</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F317" s="4">
         <v>0</v>
@@ -11409,16 +11409,16 @@
         <v>65</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F318" s="4">
         <v>0</v>
@@ -11439,16 +11439,16 @@
         <v>66</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F319" s="4">
         <v>0</v>
@@ -11469,16 +11469,16 @@
         <v>67</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F320" s="4">
         <v>0</v>
@@ -11499,16 +11499,16 @@
         <v>68</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F321" s="4">
         <v>0</v>
@@ -11529,16 +11529,16 @@
         <v>69</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F322" s="4">
         <v>0</v>
@@ -11559,16 +11559,16 @@
         <v>7</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F323" s="4">
         <v>0</v>
@@ -11589,16 +11589,16 @@
         <v>70</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F324" s="4">
         <v>0</v>
@@ -11619,16 +11619,16 @@
         <v>71</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F325" s="4">
         <v>0</v>
@@ -11649,16 +11649,16 @@
         <v>72</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F326" s="4">
         <v>0</v>
@@ -11679,16 +11679,16 @@
         <v>73</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F327" s="4">
         <v>0</v>
@@ -11709,16 +11709,16 @@
         <v>74</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F328" s="4">
         <v>0</v>
@@ -11739,16 +11739,16 @@
         <v>75</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F329" s="4">
         <v>0</v>
@@ -11769,16 +11769,16 @@
         <v>76</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F330" s="4">
         <v>0</v>
@@ -11799,16 +11799,16 @@
         <v>77</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F331" s="4">
         <v>0</v>
@@ -11829,16 +11829,16 @@
         <v>8</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F332" s="4">
         <v>0</v>
@@ -11859,16 +11859,16 @@
         <v>81</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F333" s="4">
         <v>1</v>
@@ -11889,16 +11889,16 @@
         <v>82</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F334" s="4">
         <v>0</v>
@@ -11919,16 +11919,16 @@
         <v>83</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F335" s="4">
         <v>1</v>
@@ -11949,16 +11949,16 @@
         <v>84</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F336" s="4">
         <v>1</v>
@@ -11979,16 +11979,16 @@
         <v>85</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F337" s="4">
         <v>1</v>
@@ -12009,16 +12009,16 @@
         <v>86</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F338" s="4">
         <v>1</v>
@@ -12039,16 +12039,16 @@
         <v>87</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F339" s="4">
         <v>1</v>
@@ -12069,16 +12069,16 @@
         <v>88</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F340" s="4">
         <v>0</v>
@@ -12099,16 +12099,16 @@
         <v>89</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F341" s="4">
         <v>0</v>
@@ -12129,16 +12129,16 @@
         <v>9</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F342" s="4">
         <v>0</v>
@@ -12159,16 +12159,16 @@
         <v>90</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F343" s="4">
         <v>0</v>
@@ -12189,16 +12189,16 @@
         <v>91</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F344" s="4">
         <v>0</v>
@@ -12219,16 +12219,16 @@
         <v>92</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F345" s="4">
         <v>0</v>
@@ -12249,16 +12249,16 @@
         <v>93</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F346" s="4">
         <v>0</v>
@@ -12279,16 +12279,16 @@
         <v>94</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F347" s="4">
         <v>0</v>
@@ -12309,16 +12309,16 @@
         <v>95</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F348" s="4">
         <v>0</v>
@@ -12339,16 +12339,16 @@
         <v>96</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F349" s="4">
         <v>0</v>
@@ -12369,16 +12369,16 @@
         <v>97</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F350" s="4">
         <v>0</v>
@@ -12399,16 +12399,16 @@
         <v>98</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F351" s="4">
         <v>0</v>
@@ -12429,16 +12429,16 @@
         <v>99</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F352" s="4">
         <v>0</v>
